--- a/results/hyperplane/scores_hyperplane.xlsx
+++ b/results/hyperplane/scores_hyperplane.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,13 +408,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7285</v>
+        <v>0.8044</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8484</v>
+        <v>0.8874</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8657</v>
+        <v>0.8997000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -432,13 +432,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7242</v>
+        <v>0.7931</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8381999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8662</v>
+        <v>0.8976</v>
       </c>
     </row>
     <row r="4">
@@ -456,13 +456,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0295</v>
+        <v>0.0499</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0503</v>
+        <v>0.0393</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0177</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="5">
@@ -471,22 +471,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>min</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.725</v>
+        <v>0.63</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8465</v>
+        <v>0.7719</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8665</v>
+        <v>0.7315</v>
       </c>
     </row>
     <row r="6">
@@ -495,22 +495,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>f1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>max</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7219</v>
+        <v>0.888</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8372000000000001</v>
+        <v>0.952</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8655</v>
+        <v>0.9507</v>
       </c>
     </row>
     <row r="7">
@@ -519,22 +519,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0232</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.0499</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0174</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -543,22 +549,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>training time</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>median</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>121.0382</v>
+        <v>0.806</v>
       </c>
       <c r="E8" t="n">
-        <v>36.7403</v>
+        <v>0.889</v>
       </c>
       <c r="F8" t="n">
-        <v>156.698</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9">
@@ -567,22 +573,322 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7923</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8802</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8977000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0486</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0399</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0244</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.768</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>median</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6104000000000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7779</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5842000000000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7601</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.795</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.09719999999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0799</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0489</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.3251</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5318000000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5405</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7688</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9079</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>training time</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>342.4269</v>
+      </c>
+      <c r="E20" t="n">
+        <v>31.0983</v>
+      </c>
+      <c r="F20" t="n">
+        <v>126.9833</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>prediction time</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>3.7468</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6.6224</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7.1803</v>
+      <c r="D21" t="n">
+        <v>1.6796</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5.3645</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.371</v>
       </c>
     </row>
   </sheetData>
